--- a/artfynd/A 48576-2022.xlsx
+++ b/artfynd/A 48576-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100083269</v>
+        <v>100083268</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>569103.6928627139</v>
+        <v>569295.646553766</v>
       </c>
       <c r="R2" t="n">
-        <v>6903955.500130533</v>
+        <v>6904060.092043239</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100083992</v>
+        <v>100083266</v>
       </c>
       <c r="B3" t="n">
-        <v>92501</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1004672</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Källmossor</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Philonotis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Brid.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>569096.4477078969</v>
+        <v>569294.2761642485</v>
       </c>
       <c r="R3" t="n">
-        <v>6903967.465335313</v>
+        <v>6904058.666035361</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100083268</v>
+        <v>100083991</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>92688</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>2387</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Källpraktmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Pseudobryum cinclidioides</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Huebener) T.J.Kop.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>569295.646553766</v>
+        <v>569211.1671905057</v>
       </c>
       <c r="R4" t="n">
-        <v>6904060.092043239</v>
+        <v>6904083.976534305</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100083273</v>
+        <v>100083269</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>568877.6041835379</v>
+        <v>569103.6928627139</v>
       </c>
       <c r="R5" t="n">
-        <v>6904149.805104633</v>
+        <v>6903955.500130533</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100083266</v>
+        <v>100083992</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>92501</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,25 +1160,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1004672</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Källmossor</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Philonotis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Brid.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>569294.2761642485</v>
+        <v>569096.4477078969</v>
       </c>
       <c r="R6" t="n">
-        <v>6904058.666035361</v>
+        <v>6903967.465335313</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100083272</v>
+        <v>100083273</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>569076.6973299341</v>
+        <v>568877.6041835379</v>
       </c>
       <c r="R7" t="n">
-        <v>6904043.004845407</v>
+        <v>6904149.805104633</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100083991</v>
+        <v>100083272</v>
       </c>
       <c r="B8" t="n">
-        <v>92688</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1394,25 +1394,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2387</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Källpraktmossa</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pseudobryum cinclidioides</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Huebener) T.J.Kop.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>569211.1671905057</v>
+        <v>569076.6973299341</v>
       </c>
       <c r="R8" t="n">
-        <v>6904083.976534305</v>
+        <v>6904043.004845407</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>

--- a/artfynd/A 48576-2022.xlsx
+++ b/artfynd/A 48576-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100083268</v>
+        <v>100083269</v>
       </c>
       <c r="B2" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>569295.646553766</v>
+        <v>569103.6928627139</v>
       </c>
       <c r="R2" t="n">
-        <v>6904060.092043239</v>
+        <v>6903955.500130533</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100083266</v>
+        <v>100083992</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>92501</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>1004672</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Källmossor</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Philonotis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Brid.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>569294.2761642485</v>
+        <v>569096.4477078969</v>
       </c>
       <c r="R3" t="n">
-        <v>6904058.666035361</v>
+        <v>6903967.465335313</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100083991</v>
+        <v>100083268</v>
       </c>
       <c r="B4" t="n">
-        <v>92688</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +926,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2387</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Källpraktmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pseudobryum cinclidioides</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Huebener) T.J.Kop.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>569211.1671905057</v>
+        <v>569295.646553766</v>
       </c>
       <c r="R4" t="n">
-        <v>6904083.976534305</v>
+        <v>6904060.092043239</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>100083269</v>
+        <v>100083273</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>569103.6928627139</v>
+        <v>568877.6041835379</v>
       </c>
       <c r="R5" t="n">
-        <v>6903955.500130533</v>
+        <v>6904149.805104633</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>100083992</v>
+        <v>100083266</v>
       </c>
       <c r="B6" t="n">
-        <v>92501</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,25 +1160,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1004672</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Källmossor</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Philonotis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Brid.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>569096.4477078969</v>
+        <v>569294.2761642485</v>
       </c>
       <c r="R6" t="n">
-        <v>6903967.465335313</v>
+        <v>6904058.666035361</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100083273</v>
+        <v>100083272</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>568877.6041835379</v>
+        <v>569076.6973299341</v>
       </c>
       <c r="R7" t="n">
-        <v>6904149.805104633</v>
+        <v>6904043.004845407</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1382,10 +1382,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100083272</v>
+        <v>100083991</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>92688</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1394,25 +1394,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>2387</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Källpraktmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudobryum cinclidioides</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Huebener) T.J.Kop.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1422,10 +1422,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>569076.6973299341</v>
+        <v>569211.1671905057</v>
       </c>
       <c r="R8" t="n">
-        <v>6904043.004845407</v>
+        <v>6904083.976534305</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
